--- a/Git.xlsx
+++ b/Git.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Add to staging area</t>
   </si>
@@ -98,35 +98,47 @@
     <t>git branch</t>
   </si>
   <si>
-    <t xml:space="preserve">git checkout -b updates
+    <t>Switch Branch</t>
+  </si>
+  <si>
+    <t>git checkout branch</t>
+  </si>
+  <si>
+    <t>Merging branches</t>
+  </si>
+  <si>
+    <t>git merge fromBranchName</t>
+  </si>
+  <si>
+    <t>Deleting branch</t>
+  </si>
+  <si>
+    <t>git branch -D updates</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -C "jimjohn83@gmail.com"</t>
+  </si>
+  <si>
+    <t>Generating SSH keys</t>
+  </si>
+  <si>
+    <t>ssh -T git@github.com</t>
+  </si>
+  <si>
+    <t>Git Clone</t>
+  </si>
+  <si>
+    <t>git clone  git@github.com:Jim-John/demo.git foldername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout -b updates changing branch
 </t>
   </si>
   <si>
-    <t>Switch Branch</t>
-  </si>
-  <si>
-    <t>git checkout branch</t>
-  </si>
-  <si>
-    <t>Merging branches</t>
-  </si>
-  <si>
-    <t>git merge fromBranchName</t>
-  </si>
-  <si>
-    <t>Deleting branch</t>
-  </si>
-  <si>
-    <t>git branch -D updates</t>
-  </si>
-  <si>
-    <t>ssh-keygen -t rsa -C "jimjohn83@gmail.com"</t>
-  </si>
-  <si>
-    <t>Generating SSH keys</t>
-  </si>
-  <si>
-    <t>ssh -T git@github.com</t>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>Listing all branches</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,44 +610,60 @@
     </row>
     <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Git.xlsx
+++ b/Git.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Add to staging area</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Listing all branches</t>
+  </si>
+  <si>
+    <t>Git Fetch</t>
+  </si>
+  <si>
+    <t>Git fetch and get pull git pull (git fetch +git pull)</t>
+  </si>
+  <si>
+    <t>Renaming the remote branch and making necessary changes in local</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>git remote show origin</t>
+  </si>
+  <si>
+    <t>git remote set-url origin https://github.com/Jim-John/Demo.git</t>
   </si>
 </sst>
 </file>
@@ -483,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
     <col min="2" max="2" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,6 +684,32 @@
         <v>37</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Git.xlsx
+++ b/Git.xlsx
@@ -504,114 +504,114 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" customWidth="1"/>
-    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -619,10 +619,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -640,73 +640,73 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
